--- a/DaySale_2025-05-20_15-06.xlsx
+++ b/DaySale_2025-05-20_15-06.xlsx
@@ -856,7 +856,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45797.629578842811</v>
+        <v>45797.629691441478</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -865,7 +865,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45797.629578842811</v>
+        <v>45797.629691441478</v>
       </c>
       <c r="K4" s="4"/>
     </row>

--- a/DaySale_2025-05-20_15-06.xlsx
+++ b/DaySale_2025-05-20_15-06.xlsx
@@ -74,6 +74,18 @@
     <t>0:1</t>
   </si>
   <si>
+    <t>BEBELAC 2 MILK 400 GM</t>
+  </si>
+  <si>
+    <t>0:0</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t>BECOZYME I.M./I.V. 12 AMP</t>
   </si>
   <si>
@@ -95,9 +107,6 @@
     <t>33.00</t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CEFAXONE 1 GM I.M. VIAL</t>
   </si>
   <si>
@@ -159,9 +168,6 @@
   </si>
   <si>
     <t>HERO BABY DIGEST MILK 400 GM</t>
-  </si>
-  <si>
-    <t>0:0</t>
   </si>
   <si>
     <t>349.00</t>
@@ -856,7 +862,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="4">
-        <v>45797.629691441478</v>
+        <v>45797.629821840812</v>
       </c>
       <c r="F4" s="4"/>
       <c t="s" r="G4" s="3">
@@ -865,7 +871,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="4">
-        <v>45797.629691441478</v>
+        <v>45797.629821840812</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -1056,7 +1062,7 @@
         <v>31</v>
       </c>
       <c t="s" r="M12" s="11">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" ht="24.75" customHeight="1">
@@ -1064,7 +1070,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B13" s="8">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -1072,7 +1078,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c t="s" r="H13" s="9">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
@@ -1083,7 +1089,7 @@
         <v>34</v>
       </c>
       <c t="s" r="M13" s="11">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="25.5" customHeight="1">
@@ -1091,7 +1097,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B14" s="8">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -1099,7 +1105,7 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c t="s" r="H14" s="9">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
@@ -1107,7 +1113,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L14" s="8">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c t="s" r="M14" s="11">
         <v>20</v>
@@ -1118,7 +1124,7 @@
         <v>9</v>
       </c>
       <c t="s" r="B15" s="8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -1126,7 +1132,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c t="s" r="H15" s="9">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="I15" s="9"/>
       <c r="J15" s="9"/>
@@ -1180,7 +1186,7 @@
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c t="s" r="H17" s="9">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="9"/>
@@ -1188,7 +1194,7 @@
         <v>12</v>
       </c>
       <c t="s" r="L17" s="8">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c t="s" r="M17" s="11">
         <v>20</v>
@@ -1199,7 +1205,7 @@
         <v>12</v>
       </c>
       <c t="s" r="B18" s="8">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
@@ -1207,7 +1213,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c t="s" r="H18" s="9">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="9"/>
@@ -1215,10 +1221,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L18" s="8">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c t="s" r="M18" s="11">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="25.5" customHeight="1">
@@ -1226,7 +1232,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B19" s="8">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
@@ -1234,7 +1240,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c t="s" r="H19" s="9">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I19" s="9"/>
       <c r="J19" s="9"/>
@@ -1242,10 +1248,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L19" s="8">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c t="s" r="M19" s="11">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="24.75" customHeight="1">
@@ -1253,7 +1259,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B20" s="8">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1261,7 +1267,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c t="s" r="H20" s="9">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="I20" s="9"/>
       <c r="J20" s="9"/>
@@ -1272,7 +1278,7 @@
         <v>51</v>
       </c>
       <c t="s" r="M20" s="11">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="25.5" customHeight="1">
@@ -1288,7 +1294,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c t="s" r="H21" s="9">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="9"/>
@@ -1299,7 +1305,7 @@
         <v>53</v>
       </c>
       <c t="s" r="M21" s="11">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1315,7 +1321,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c t="s" r="H22" s="9">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="I22" s="9"/>
       <c r="J22" s="9"/>
@@ -1326,7 +1332,7 @@
         <v>55</v>
       </c>
       <c t="s" r="M22" s="11">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" ht="24.75" customHeight="1">
@@ -1342,7 +1348,7 @@
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c t="s" r="H23" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="9"/>
@@ -1353,7 +1359,7 @@
         <v>57</v>
       </c>
       <c t="s" r="M23" s="11">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" ht="25.5" customHeight="1">
@@ -1369,7 +1375,7 @@
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c t="s" r="H24" s="9">
-        <v>59</v>
+        <v>20</v>
       </c>
       <c r="I24" s="9"/>
       <c r="J24" s="9"/>
@@ -1377,10 +1383,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L24" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c t="s" r="M24" s="11">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="24.75" customHeight="1">
@@ -1388,7 +1394,7 @@
         <v>19</v>
       </c>
       <c t="s" r="B25" s="8">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -1396,7 +1402,7 @@
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c t="s" r="H25" s="9">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
@@ -1407,7 +1413,7 @@
         <v>62</v>
       </c>
       <c t="s" r="M25" s="11">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" ht="25.5" customHeight="1">
@@ -1423,7 +1429,7 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
@@ -1450,7 +1456,7 @@
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
@@ -1477,7 +1483,7 @@
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c t="s" r="H28" s="9">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I28" s="9"/>
       <c r="J28" s="9"/>
@@ -1488,7 +1494,7 @@
         <v>68</v>
       </c>
       <c t="s" r="M28" s="11">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -1504,7 +1510,7 @@
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -1512,10 +1518,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L29" s="8">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c t="s" r="M29" s="11">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -1523,7 +1529,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B30" s="8">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
@@ -1531,7 +1537,7 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
@@ -1539,10 +1545,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L30" s="8">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c t="s" r="M30" s="11">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -1550,7 +1556,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B31" s="8">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="8"/>
@@ -1558,7 +1564,7 @@
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -1566,10 +1572,10 @@
         <v>12</v>
       </c>
       <c t="s" r="L31" s="8">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c t="s" r="M31" s="11">
-        <v>11</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1585,18 +1591,18 @@
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c t="s" r="K32" s="10">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c t="s" r="L32" s="8">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c t="s" r="M32" s="11">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -1604,7 +1610,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B33" s="8">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="8"/>
@@ -1612,18 +1618,18 @@
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
       <c t="s" r="K33" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="L33" s="8">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c t="s" r="M33" s="11">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" ht="25.5" customHeight="1">
@@ -1631,7 +1637,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B34" s="8">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="8"/>
@@ -1639,18 +1645,18 @@
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
       <c t="s" r="K34" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="L34" s="8">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c t="s" r="M34" s="11">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -1658,7 +1664,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B35" s="8">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="8"/>
@@ -1666,18 +1672,18 @@
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
       <c t="s" r="K35" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="L35" s="8">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c t="s" r="M35" s="11">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" ht="25.5" customHeight="1">
@@ -1685,7 +1691,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B36" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
@@ -1693,18 +1699,18 @@
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
       <c t="s" r="K36" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="L36" s="8">
         <v>85</v>
       </c>
       <c t="s" r="M36" s="11">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1720,18 +1726,18 @@
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
       <c t="s" r="K37" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="L37" s="8">
         <v>87</v>
       </c>
       <c t="s" r="M37" s="11">
-        <v>88</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" ht="24.75" customHeight="1">
@@ -1739,7 +1745,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B38" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
@@ -1747,18 +1753,18 @@
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
       <c t="s" r="K38" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="L38" s="8">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c t="s" r="M38" s="11">
-        <v>28</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" ht="25.5" customHeight="1">
@@ -1766,7 +1772,7 @@
         <v>33</v>
       </c>
       <c t="s" r="B39" s="8">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
@@ -1774,18 +1780,18 @@
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>91</v>
+        <v>30</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
       <c t="s" r="K39" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="L39" s="8">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c t="s" r="M39" s="11">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -1793,7 +1799,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B40" s="8">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
@@ -1801,18 +1807,18 @@
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
       <c t="s" r="K40" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="L40" s="8">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c t="s" r="M40" s="11">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41" ht="25.5" customHeight="1">
@@ -1820,7 +1826,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B41" s="8">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="8"/>
@@ -1828,43 +1834,70 @@
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c t="s" r="H41" s="9">
-        <v>95</v>
+        <v>22</v>
       </c>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
       <c t="s" r="K41" s="10">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c t="s" r="L41" s="8">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c t="s" r="M41" s="11">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" ht="16.5" customHeight="1">
-      <c t="s" r="A42" s="12">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" ht="25.5" customHeight="1">
+      <c r="A42" s="7">
+        <v>36</v>
+      </c>
+      <c t="s" r="B42" s="8">
         <v>96</v>
       </c>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c t="s" r="F42" s="13">
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c t="s" r="H42" s="9">
         <v>97</v>
       </c>
-      <c r="G42" s="13"/>
-      <c r="H42" s="14"/>
-      <c t="s" r="I42" s="15">
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c t="s" r="K42" s="10">
+        <v>77</v>
+      </c>
+      <c t="s" r="L42" s="8">
+        <v>70</v>
+      </c>
+      <c t="s" r="M42" s="11">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" ht="16.5" customHeight="1">
+      <c t="s" r="A43" s="12">
         <v>98</v>
       </c>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c t="s" r="F43" s="13">
+        <v>99</v>
+      </c>
+      <c r="G43" s="13"/>
+      <c r="H43" s="14"/>
+      <c t="s" r="I43" s="15">
+        <v>100</v>
+      </c>
+      <c r="J43" s="15"/>
+      <c r="K43" s="15"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
+  <mergeCells count="82">
     <mergeCell ref="C2:K2"/>
     <mergeCell ref="A3:M3"/>
     <mergeCell ref="E4:F4"/>
@@ -1942,9 +1975,11 @@
     <mergeCell ref="H40:J40"/>
     <mergeCell ref="B41:G41"/>
     <mergeCell ref="H41:J41"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="I42:M42"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="I43:M43"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
